--- a/Data/FrozenSnowFox/[FSF] Complex Jobs - 2069684319/[FSF] Complex Jobs - 2069684319.xlsx
+++ b/Data/FrozenSnowFox/[FSF] Complex Jobs - 2069684319/[FSF] Complex Jobs - 2069684319.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zilrt\Desktop\RimworldExtractor-Standard\[FSF] Complex Jobs - 2069684319\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\알티\갱신\[FSF] Complex Jobs - 2069684319\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E860E841-E0B3-4126-A03B-32E5626DCACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBE1565-FC6F-4C93-9B58-D81E640BCAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="822">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -370,7 +383,7 @@
     <t>FSFHarvesting.description</t>
   </si>
   <si>
-    <t>Harvest grown crops.</t>
+    <t>Harvest grown plants.</t>
   </si>
   <si>
     <t>WorkTypeDef+FSFHarvesting.verb</t>
@@ -487,9 +500,6 @@
     <t>FSFMachining.gerundLabel</t>
   </si>
   <si>
-    <t>smithing</t>
-  </si>
-  <si>
     <t>WorkTypeDef+FSFMachining.description</t>
   </si>
   <si>
@@ -505,7 +515,7 @@
     <t>FSFMachining.verb</t>
   </si>
   <si>
-    <t>Smith at</t>
+    <t>Machine at</t>
   </si>
   <si>
     <t>WorkTypeDef+FSFFabrication.labelShort</t>
@@ -550,6 +560,9 @@
     <t>FSFFabrication.verb</t>
   </si>
   <si>
+    <t>Fabricate at</t>
+  </si>
+  <si>
     <t>WorkTypeDef+FSFRefining.labelShort</t>
   </si>
   <si>
@@ -976,6 +989,21 @@
     <t>Complex Jobs Settings</t>
   </si>
   <si>
+    <t>Keyed+FSFComplexJobsAnomalyTasksInDarkStudyTitle</t>
+  </si>
+  <si>
+    <t>FSFComplexJobsAnomalyTasksInDarkStudyTitle</t>
+  </si>
+  <si>
+    <t>Anomaly Tasks In Dark Study</t>
+  </si>
+  <si>
+    <t>Keyed+FSFComplexJobsAnomalyTasksInDarkStudyDesc</t>
+  </si>
+  <si>
+    <t>FSFComplexJobsAnomalyTasksInDarkStudyDesc</t>
+  </si>
+  <si>
     <t>Keyed+FSFComplexJobsDraftedWorkTasksTitle</t>
   </si>
   <si>
@@ -1012,6 +1040,24 @@
     <t>Adds a duplicated task of Rescue to Firefighting.  This will cause people on the firefighting worktype to first rescue downed allies before attempting to fight fires.\nNote: Although this is intended to be an alternative to the Rescue worktype both options can be enabled without issue.</t>
   </si>
   <si>
+    <t>Keyed+FSFComplexJobsIdeoRolesAreCapableTitle</t>
+  </si>
+  <si>
+    <t>FSFComplexJobsIdeoRolesAreCapableTitle</t>
+  </si>
+  <si>
+    <t>Ideoligion Roles Are Capable</t>
+  </si>
+  <si>
+    <t>Keyed+FSFComplexJobsIdeoRolesAreCapableDesc</t>
+  </si>
+  <si>
+    <t>FSFComplexJobsIdeoRolesAreCapableDesc</t>
+  </si>
+  <si>
+    <t>Removes all the disabled worktypes from all ideoligion roles.</t>
+  </si>
+  <si>
     <t>Keyed+FSFComplexJobsMechanoidsAreCapableTitle</t>
   </si>
   <si>
@@ -1282,6 +1328,24 @@
     <t>Enables the Taming Worktype which focuses around taming animals.</t>
   </si>
   <si>
+    <t>Keyed+FSFComplexJobsTeachWorktypeTitle</t>
+  </si>
+  <si>
+    <t>FSFComplexJobsTeachWorktypeTitle</t>
+  </si>
+  <si>
+    <t>Teach Worktype</t>
+  </si>
+  <si>
+    <t>Keyed+FSFComplexJobsTeachWorktypeDesc</t>
+  </si>
+  <si>
+    <t>FSFComplexJobsTeachWorktypeDesc</t>
+  </si>
+  <si>
+    <t>Enables the Teach Worktype which moves the Teach Children task from Childcare to its own Worktype.</t>
+  </si>
+  <si>
     <t>Patches.WorkGiverDef+FSFTakeToBedToOperate.label</t>
   </si>
   <si>
@@ -1312,6 +1376,111 @@
     <t>taking to operate</t>
   </si>
   <si>
+    <t>Patches.WorkGiverDef+FSFFeedPrisoner.label</t>
+  </si>
+  <si>
+    <t>FSFFeedPrisoner.label</t>
+  </si>
+  <si>
+    <t>feed prisoners</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFFeedPrisoner.verb</t>
+  </si>
+  <si>
+    <t>FSFFeedPrisoner.verb</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFFeedPrisoner.gerund</t>
+  </si>
+  <si>
+    <t>FSFFeedPrisoner.gerund</t>
+  </si>
+  <si>
+    <t>feeding</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDBHAdministerFluidsWarden.label</t>
+  </si>
+  <si>
+    <t>FSFDBHAdministerFluidsWarden.label</t>
+  </si>
+  <si>
+    <t>administer fluids</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDBHAdministerFluidsWarden.verb</t>
+  </si>
+  <si>
+    <t>FSFDBHAdministerFluidsWarden.verb</t>
+  </si>
+  <si>
+    <t>give drink</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDBHAdministerFluidsWarden.gerund</t>
+  </si>
+  <si>
+    <t>FSFDBHAdministerFluidsWarden.gerund</t>
+  </si>
+  <si>
+    <t>serving drink</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFwashChild.label</t>
+  </si>
+  <si>
+    <t>FSFwashChild.label</t>
+  </si>
+  <si>
+    <t>wash child</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFwashChild.verb</t>
+  </si>
+  <si>
+    <t>FSFwashChild.verb</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFwashChild.gerund</t>
+  </si>
+  <si>
+    <t>FSFwashChild.gerund</t>
+  </si>
+  <si>
+    <t>washing</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFMF_DeliverResourcesAcrossLevel.label</t>
+  </si>
+  <si>
+    <t>FSFMF_DeliverResourcesAcrossLevel.label</t>
+  </si>
+  <si>
+    <t>deliver resources across level</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFMF_DeliverResourcesAcrossLevel.verb</t>
+  </si>
+  <si>
+    <t>FSFMF_DeliverResourcesAcrossLevel.verb</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFMF_DeliverResourcesAcrossLevel.gerund</t>
+  </si>
+  <si>
+    <t>FSFMF_DeliverResourcesAcrossLevel.gerund</t>
+  </si>
+  <si>
     <t>Patches.WorkGiverDef+FSFDeliverResourcesToFrames.label</t>
   </si>
   <si>
@@ -1366,835 +1535,1035 @@
     <t>FSFClearBlockage.label</t>
   </si>
   <si>
+    <t>clear blockage</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFClearBlockage.verb</t>
+  </si>
+  <si>
+    <t>FSFClearBlockage.verb</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFClearBlockage.gerund</t>
+  </si>
+  <si>
+    <t>FSFClearBlockage.gerund</t>
+  </si>
+  <si>
+    <t>clearing blockage</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDoubleTap.label</t>
+  </si>
+  <si>
+    <t>FSFDoubleTap.label</t>
+  </si>
+  <si>
+    <t>double tap corpses</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDoubleTap.verb</t>
+  </si>
+  <si>
+    <t>FSFDoubleTap.verb</t>
+  </si>
+  <si>
+    <t>double tap</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDoubleTap.gerund</t>
+  </si>
+  <si>
+    <t>FSFDoubleTap.gerund</t>
+  </si>
+  <si>
+    <t>double tapping</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDMS_Furnace.label</t>
+  </si>
+  <si>
+    <t>FSFDMS_Furnace.label</t>
+  </si>
+  <si>
+    <t>Operate sintering furnace</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDMS_Furnace.verb</t>
+  </si>
+  <si>
+    <t>FSFDMS_Furnace.verb</t>
+  </si>
+  <si>
+    <t>Operate</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDMS_Furnace.gerund</t>
+  </si>
+  <si>
+    <t>FSFDMS_Furnace.gerund</t>
+  </si>
+  <si>
+    <t>Operating at</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDMS_LabFurnace.label</t>
+  </si>
+  <si>
+    <t>FSFDMS_LabFurnace.label</t>
+  </si>
+  <si>
+    <t>Operate lab furnace</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDMS_LabFurnace.verb</t>
+  </si>
+  <si>
+    <t>FSFDMS_LabFurnace.verb</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDMS_LabFurnace.gerund</t>
+  </si>
+  <si>
+    <t>FSFDMS_LabFurnace.gerund</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFProcessSeeds.label</t>
+  </si>
+  <si>
+    <t>FSFProcessSeeds.label</t>
+  </si>
+  <si>
+    <t>process seeds</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFProcessSeeds.verb</t>
+  </si>
+  <si>
+    <t>FSFProcessSeeds.verb</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFProcessSeeds.gerund</t>
+  </si>
+  <si>
+    <t>FSFProcessSeeds.gerund</t>
+  </si>
+  <si>
+    <t>processing at</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFVCE_DoBillsVegMilkExtractor.label</t>
+  </si>
+  <si>
+    <t>FSFVCE_DoBillsVegMilkExtractor.label</t>
+  </si>
+  <si>
+    <t>extract vegetable milks</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFVCE_DoBillsVegMilkExtractor.verb</t>
+  </si>
+  <si>
+    <t>FSFVCE_DoBillsVegMilkExtractor.verb</t>
+  </si>
+  <si>
+    <t>extract vegetable milk</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFVCE_DoBillsVegMilkExtractor.gerund</t>
+  </si>
+  <si>
+    <t>FSFVCE_DoBillsVegMilkExtractor.gerund</t>
+  </si>
+  <si>
+    <t>extracting vegetable milk at</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFVCE_DoBillsCanning.label</t>
+  </si>
+  <si>
+    <t>FSFVCE_DoBillsCanning.label</t>
+  </si>
+  <si>
+    <t>work at canning machine</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFVCE_DoBillsCanning.verb</t>
+  </si>
+  <si>
+    <t>FSFVCE_DoBillsCanning.verb</t>
+  </si>
+  <si>
+    <t>can food</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFVCE_DoBillsCanning.gerund</t>
+  </si>
+  <si>
+    <t>FSFVCE_DoBillsCanning.gerund</t>
+  </si>
+  <si>
+    <t>canning food at</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFFFE_DoBillsMeatMincer.label</t>
+  </si>
+  <si>
+    <t>FSFFFE_DoBillsMeatMincer.label</t>
+  </si>
+  <si>
+    <t>cook on meat mincer</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFFFE_DoBillsMeatMincer.verb</t>
+  </si>
+  <si>
+    <t>FSFFFE_DoBillsMeatMincer.verb</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFFFE_DoBillsMeatMincer.gerund</t>
+  </si>
+  <si>
+    <t>FSFFFE_DoBillsMeatMincer.gerund</t>
+  </si>
+  <si>
+    <t>cooking at</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFVCE_DoBillsPrep.label</t>
+  </si>
+  <si>
+    <t>FSFVCE_DoBillsPrep.label</t>
+  </si>
+  <si>
+    <t>work on condiments at prep table</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFVCE_DoBillsPrep.verb</t>
+  </si>
+  <si>
+    <t>FSFVCE_DoBillsPrep.verb</t>
+  </si>
+  <si>
+    <t>prep condiments</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFVCE_DoBillsPrep.gerund</t>
+  </si>
+  <si>
+    <t>FSFVCE_DoBillsPrep.gerund</t>
+  </si>
+  <si>
+    <t>working on condiments at</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFVBE_DoBillsEspressoMachine.label</t>
+  </si>
+  <si>
+    <t>FSFVBE_DoBillsEspressoMachine.label</t>
+  </si>
+  <si>
+    <t>brew at espresso machine</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFVBE_DoBillsEspressoMachine.verb</t>
+  </si>
+  <si>
+    <t>FSFVBE_DoBillsEspressoMachine.verb</t>
+  </si>
+  <si>
+    <t>brew</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFVBE_DoBillsEspressoMachine.gerund</t>
+  </si>
+  <si>
+    <t>FSFVBE_DoBillsEspressoMachine.gerund</t>
+  </si>
+  <si>
+    <t>brew at</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDMS_ReactionChamber.label</t>
+  </si>
+  <si>
+    <t>FSFDMS_ReactionChamber.label</t>
+  </si>
+  <si>
+    <t>Operate pressure chamber</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDMS_ReactionChamber.verb</t>
+  </si>
+  <si>
+    <t>FSFDMS_ReactionChamber.verb</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDMS_ReactionChamber.gerund</t>
+  </si>
+  <si>
+    <t>FSFDMS_ReactionChamber.gerund</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDMS_LabReactor.label</t>
+  </si>
+  <si>
+    <t>FSFDMS_LabReactor.label</t>
+  </si>
+  <si>
+    <t>Operate lab reactor</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDMS_LabReactor.verb</t>
+  </si>
+  <si>
+    <t>FSFDMS_LabReactor.verb</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFDMS_LabReactor.gerund</t>
+  </si>
+  <si>
+    <t>FSFDMS_LabReactor.gerund</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFVFEA_DoBillsAncientCookingStation.label</t>
+  </si>
+  <si>
+    <t>FSFVFEA_DoBillsAncientCookingStation.label</t>
+  </si>
+  <si>
+    <t>work at ancient cooking station</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFVFEA_DoBillsAncientCookingStation.verb</t>
+  </si>
+  <si>
+    <t>FSFVFEA_DoBillsAncientCookingStation.verb</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>Patches.WorkGiverDef+FSFVFEA_DoBillsAncientCookingStation.gerund</t>
+  </si>
+  <si>
+    <t>FSFVFEA_DoBillsAncientCookingStation.gerund</t>
+  </si>
+  <si>
+    <t>working at</t>
+  </si>
+  <si>
+    <t>간호</t>
+  </si>
+  <si>
+    <t>아픈 사람들을 돌보고, 음식을 갔다주며, 기운을 북돋우고, 할당된 임무를 수행합니다. 간호사들은 정착지 주민, 죄수 그리고 동물들을 돌볼 것입니다.</t>
+  </si>
+  <si>
+    <t>수술</t>
+  </si>
+  <si>
+    <t>인간 및 동물을 대상으로 수술을 합니다.</t>
+  </si>
+  <si>
+    <t>치료</t>
+  </si>
+  <si>
+    <t>장전</t>
+  </si>
+  <si>
+    <t>장전 작업자</t>
+  </si>
+  <si>
+    <t>포탑을 재장전합니다.</t>
+  </si>
+  <si>
+    <t>훈련</t>
+  </si>
+  <si>
+    <t>훈련사</t>
+  </si>
+  <si>
+    <t>야생 동물을 길들이고, 가축을 훈련시킵니다.</t>
+  </si>
+  <si>
+    <t>도축</t>
+  </si>
+  <si>
+    <t>도축자</t>
+  </si>
+  <si>
+    <t>가축을 도축해 육류로 가공하거나 사료등을 제작합니다.</t>
+  </si>
+  <si>
+    <t>수리</t>
+  </si>
+  <si>
+    <t>수리자</t>
+  </si>
+  <si>
+    <t>손상되거나 파손된 건물, 물품을 수리합니다.</t>
+  </si>
+  <si>
+    <t>해체</t>
+  </si>
+  <si>
+    <t>해체자</t>
+  </si>
+  <si>
+    <t>해체 / 제거</t>
+  </si>
+  <si>
+    <t>건물이나 물체를, 해체하거나 제거합니다.</t>
+  </si>
+  <si>
+    <t>수확</t>
+  </si>
+  <si>
+    <t>농부</t>
+  </si>
+  <si>
+    <t>다 자란 작물을 수확합니다.</t>
+  </si>
+  <si>
+    <t>심층 채굴</t>
+  </si>
+  <si>
+    <t>광부</t>
+  </si>
+  <si>
+    <t>자원을 채굴하기 위해 심층 굴착기를 사용합니다.</t>
+  </si>
+  <si>
+    <t>약물 제조</t>
+  </si>
+  <si>
+    <t>약사</t>
+  </si>
+  <si>
+    <t>약물 연구대에서 약물을 제조합니다.</t>
+  </si>
+  <si>
+    <t>제작</t>
+  </si>
+  <si>
+    <t>기계 제작</t>
+  </si>
+  <si>
+    <t>기술자</t>
+  </si>
+  <si>
+    <t>기계 작업대에서 원자재로 무기와 도구를 만듭니다.</t>
+  </si>
+  <si>
+    <t>제련</t>
+  </si>
+  <si>
+    <t>조립 제작</t>
+  </si>
+  <si>
+    <t>조립 제작자</t>
+  </si>
+  <si>
+    <t>조립 작업대에서 원자재로 무기, 갑옷, 생체 공학 및 구성 요소를 만듭니다.</t>
+  </si>
+  <si>
+    <t>정제</t>
+  </si>
+  <si>
+    <t>정제자</t>
+  </si>
+  <si>
+    <t>연료 정제기에서 화학 연료를 정제합니다.</t>
+  </si>
+  <si>
+    <t>생산</t>
+  </si>
+  <si>
+    <t>생산자</t>
+  </si>
+  <si>
+    <t>다양한 상품을 생산하는 일반 생산 업무를 수행합니다.  여기에는 일반적으로 생산 개체를 채우고 비우거나 간단한 작업을 수행하는 것이 포함됩니다.</t>
+  </si>
+  <si>
+    <t>용해</t>
+  </si>
+  <si>
+    <t>용해자</t>
+  </si>
+  <si>
+    <t>전기로를 사용하여 덩어리나 무기를 녹여서 유용한 금속을 추출하거나, 녹여 없애버립니다.</t>
+  </si>
+  <si>
+    <t>석재 가공</t>
+  </si>
+  <si>
+    <t>석재 가공자</t>
+  </si>
+  <si>
+    <t>바위 덩어리로 벽돌을 만듭니다.</t>
+  </si>
+  <si>
+    <t>운송</t>
+  </si>
+  <si>
+    <t>운송 담당자</t>
+  </si>
+  <si>
+    <t>수송 포드 ,상단, 차량을 준비하고 하역합니다.</t>
+  </si>
+  <si>
+    <t>소각</t>
+  </si>
+  <si>
+    <t>소각자</t>
+  </si>
+  <si>
+    <t>화장터, 모닥불을 이용해 의류, 약물 그리고 시체를 소각합니다.</t>
+  </si>
+  <si>
+    <t>전달</t>
+  </si>
+  <si>
+    <t>짐꾼</t>
+  </si>
+  <si>
+    <t>구조물 청사진에 필요한 건축 자재를 운반합니다.</t>
+  </si>
+  <si>
+    <t>운반</t>
+  </si>
+  <si>
+    <t>운반자</t>
+  </si>
+  <si>
+    <t>필요한 곳으로 물건을 운반합니다.</t>
+  </si>
+  <si>
+    <t>탐색</t>
+  </si>
+  <si>
+    <t>탐색자</t>
+  </si>
+  <si>
+    <t>원거리 광물 스캐너를 사용하여 자원을 탐색하거나, 지면 투과 스캐너를 통해 탐색합니다.</t>
+  </si>
+  <si>
+    <t>광물 탐색</t>
+  </si>
+  <si>
+    <t>- FrozenSnowFox Complex Jobs -</t>
+  </si>
+  <si>
+    <t>변경된 설정을 적용하려면 게임을 다시 시작해야 합니다.\n게임 중간에 새로운 작업 유형을 활성화하는 경우 기존 메카노이드를 교체해야 새 작업유형을 적용할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Complex Jobs 설정</t>
+  </si>
+  <si>
+    <t>소집 중 작업 임무</t>
+  </si>
+  <si>
+    <t>모든 작업 임무를 소집 중에도 수행할 수 있도록 변경합니다.  작업을 수행하기 위해 더 이상 폰을 소집 취소했다가 다시 소집할 필요가 없도록 변경합니다.\n참고: 일부 작업은 여전히 소집 중에도 사용할 수 없으며, 일부 작업은 폰을 강제로 소집 취소하여 작업을 수행할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>소방에 포함된 구조</t>
+  </si>
+  <si>
+    <t>소방에 구조라는 중복된 임무를 추가합니다.  이렇게 하면 소방 작업 유형에 속한 사람이 화재 진압을 시도하기 전에 쓰러진 아군을 먼저 구조하게 됩니다.\n참고: 이 옵션은 구조 작업 유형의 대안이지만 두 옵션 모두 문제 없이 활성화할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>유능한 메카노이드</t>
+  </si>
+  <si>
+    <t>모든 작업 유형 작업의 canBeDoneByMechs 필드를 false에서 true로 변경합니다.\n참고: 일부 작업들은 추가적인 코드로 수정하지 않으면 게임이 깨집니다. 이러한 작업들은 명백한 이유로 제외됩니다.</t>
+  </si>
+  <si>
+    <t>유능한 노예</t>
+  </si>
+  <si>
+    <t>노예가 감시를 제외한 모든 작업 유형을 수행할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>유능한 워캐스킷</t>
+  </si>
+  <si>
+    <t>워캐스킷이 모든 작업 유형을 수행할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>오염 제거 작업 유형</t>
+  </si>
+  <si>
+    <t>오염 제거 작업 유형을 활성화하여 오염 제거 작업을 별도의 작업 유형으로 이동시킵니다</t>
+  </si>
+  <si>
+    <t>제설 작업 유형</t>
+  </si>
+  <si>
+    <t>제설 작업 유형을 활성화하여 제설 작업 유형을 별도의 작업 유형으로 이동시킵니다</t>
+  </si>
+  <si>
+    <t>교화 작업 유형</t>
+  </si>
+  <si>
+    <t>포로의 이념을 교화하는 데 중점을 둔 작업 유형을 활성화합니다.</t>
+  </si>
+  <si>
+    <t>메카노이드 작업 유형</t>
+  </si>
+  <si>
+    <t>메카노이드와 관련된 모든 것에 초점을 맞춘 메카노이드 작업 유형을 활성화합니다.</t>
+  </si>
+  <si>
+    <t>물건 병합 작업 유형</t>
+  </si>
+  <si>
+    <t>물건 병합 작업 유형을 활성화하여 병합 작업을 운반에서 별도의 작업 유형으로 이동시킵니다.</t>
+  </si>
+  <si>
+    <t>도색 작업 유형</t>
+  </si>
+  <si>
+    <t>도색 작업 유형을 활성화하여 페인트 관련 작업을 모두 별도의 작업 유형으로 이동시킵니다.</t>
+  </si>
+  <si>
+    <t>포로 관리 작업 유형</t>
+  </si>
+  <si>
+    <t>음식을 제공하고 수감자들을 돌보는 데 중점을 둔 포로 관리 작업 유형을 활성화합니다.</t>
+  </si>
+  <si>
+    <t>가지치기 작업유헝</t>
+  </si>
+  <si>
+    <t>나무 가지치기에 중점을 둔 가지치기 작업 유형을 활성화합니다.</t>
+  </si>
+  <si>
+    <t>구조 작업 유형</t>
+  </si>
+  <si>
+    <t>쓰러진 아군을 구출하는 데 중점을 둔 구조 작업 유형을 활성화합니다.</t>
+  </si>
+  <si>
+    <t>도축 작업 유형</t>
+  </si>
+  <si>
+    <t>지정된 동물을 도축하는 데 중점을 둔 도축 작업 유형을 활성화합니다.</t>
+  </si>
+  <si>
+    <t>다듬기 작업 유형</t>
+  </si>
+  <si>
+    <t>바닥과 벽 표면을 다듬어 더 깔끔하게 만드는 데 중점을 둔 다듬기 작업 유형을 활성화합니다.</t>
+  </si>
+  <si>
+    <t>길들이기 작업 유형</t>
+  </si>
+  <si>
+    <t>동물 길들이기에 중점을 둔 길들이기 작업 유형을 활성화합니다.</t>
+  </si>
+  <si>
     <t>Dubs Bad Hygiene</t>
   </si>
   <si>
-    <t>clear blockage</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFClearBlockage.verb</t>
-  </si>
-  <si>
-    <t>FSFClearBlockage.verb</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFClearBlockage.gerund</t>
-  </si>
-  <si>
-    <t>FSFClearBlockage.gerund</t>
-  </si>
-  <si>
-    <t>clearing blockage</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFDoubleTap.label</t>
-  </si>
-  <si>
-    <t>FSFDoubleTap.label</t>
-  </si>
-  <si>
     <t>Zombieland</t>
   </si>
   <si>
-    <t>double tap corpses</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFDoubleTap.verb</t>
-  </si>
-  <si>
-    <t>FSFDoubleTap.verb</t>
-  </si>
-  <si>
-    <t>double tap</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFDoubleTap.gerund</t>
-  </si>
-  <si>
-    <t>FSFDoubleTap.gerund</t>
-  </si>
-  <si>
-    <t>double tapping</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFProcessSeeds.label</t>
-  </si>
-  <si>
-    <t>FSFProcessSeeds.label</t>
-  </si>
-  <si>
-    <t>process seeds</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFProcessSeeds.verb</t>
-  </si>
-  <si>
-    <t>FSFProcessSeeds.verb</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFProcessSeeds.gerund</t>
-  </si>
-  <si>
-    <t>FSFProcessSeeds.gerund</t>
-  </si>
-  <si>
-    <t>processing at</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFVCE_DoBillsVegMilkExtractor.label</t>
-  </si>
-  <si>
-    <t>FSFVCE_DoBillsVegMilkExtractor.label</t>
+    <t>두 번의 확인 사살</t>
   </si>
   <si>
     <t xml:space="preserve"> (( Vanilla Plants Expanded - More Plants || Vanilla Cooking Expanded )) </t>
   </si>
   <si>
-    <t>extract vegetable milks</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFVCE_DoBillsVegMilkExtractor.verb</t>
-  </si>
-  <si>
-    <t>FSFVCE_DoBillsVegMilkExtractor.verb</t>
-  </si>
-  <si>
-    <t>extract vegetable milk</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFVCE_DoBillsVegMilkExtractor.gerund</t>
-  </si>
-  <si>
-    <t>FSFVCE_DoBillsVegMilkExtractor.gerund</t>
-  </si>
-  <si>
-    <t>extracting vegetable milk at</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFVCE_DoBillsCanning.label</t>
-  </si>
-  <si>
-    <t>FSFVCE_DoBillsCanning.label</t>
-  </si>
-  <si>
     <t>Vanilla Cooking Expanded</t>
   </si>
   <si>
-    <t>work at canning machine</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFVCE_DoBillsCanning.verb</t>
-  </si>
-  <si>
-    <t>FSFVCE_DoBillsCanning.verb</t>
-  </si>
-  <si>
-    <t>can food</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFVCE_DoBillsCanning.gerund</t>
-  </si>
-  <si>
-    <t>FSFVCE_DoBillsCanning.gerund</t>
-  </si>
-  <si>
-    <t>canning food at</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFFFE_DoBillsMeatMincer.label</t>
-  </si>
-  <si>
-    <t>FSFFFE_DoBillsMeatMincer.label</t>
-  </si>
-  <si>
     <t>Vanilla Furniture Expanded Pack</t>
   </si>
   <si>
-    <t>cook on meat mincer</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFFFE_DoBillsMeatMincer.verb</t>
-  </si>
-  <si>
-    <t>FSFFFE_DoBillsMeatMincer.verb</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFFFE_DoBillsMeatMincer.gerund</t>
-  </si>
-  <si>
-    <t>FSFFFE_DoBillsMeatMincer.gerund</t>
-  </si>
-  <si>
-    <t>cooking at</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFDankPyon_DoBillsMillstone.label</t>
-  </si>
-  <si>
-    <t>FSFDankPyon_DoBillsMillstone.label</t>
-  </si>
-  <si>
-    <t>Medieval Overhaul</t>
-  </si>
-  <si>
-    <t>grind bulk grains</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFDankPyon_DoBillsMillstone.verb</t>
-  </si>
-  <si>
-    <t>FSFDankPyon_DoBillsMillstone.verb</t>
-  </si>
-  <si>
-    <t>mill</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFDankPyon_DoBillsMillstone.gerund</t>
-  </si>
-  <si>
-    <t>FSFDankPyon_DoBillsMillstone.gerund</t>
-  </si>
-  <si>
-    <t>milling at</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFVCE_DoBillsPrep.label</t>
-  </si>
-  <si>
-    <t>FSFVCE_DoBillsPrep.label</t>
-  </si>
-  <si>
-    <t>work on condiments at prep table</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFVCE_DoBillsPrep.verb</t>
-  </si>
-  <si>
-    <t>FSFVCE_DoBillsPrep.verb</t>
-  </si>
-  <si>
-    <t>prep condiments</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFVCE_DoBillsPrep.gerund</t>
-  </si>
-  <si>
-    <t>FSFVCE_DoBillsPrep.gerund</t>
-  </si>
-  <si>
-    <t>working on condiments at</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFDankPyon_DoBillsMakeTimber.label</t>
-  </si>
-  <si>
-    <t>FSFDankPyon_DoBillsMakeTimber.label</t>
-  </si>
-  <si>
-    <t>make timber</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFDankPyon_DoBillsMakeTimber.verb</t>
-  </si>
-  <si>
-    <t>FSFDankPyon_DoBillsMakeTimber.verb</t>
-  </si>
-  <si>
-    <t>craft</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFDankPyon_DoBillsMakeTimber.gerund</t>
-  </si>
-  <si>
-    <t>FSFDankPyon_DoBillsMakeTimber.gerund</t>
-  </si>
-  <si>
-    <t>crafting at</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFDankPyon_DoBillsSpinningWheel.label</t>
-  </si>
-  <si>
-    <t>FSFDankPyon_DoBillsSpinningWheel.label</t>
-  </si>
-  <si>
-    <t>spin cotton</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFDankPyon_DoBillsSpinningWheel.verb</t>
-  </si>
-  <si>
-    <t>FSFDankPyon_DoBillsSpinningWheel.verb</t>
-  </si>
-  <si>
-    <t>spin</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFDankPyon_DoBillsSpinningWheel.gerund</t>
-  </si>
-  <si>
-    <t>FSFDankPyon_DoBillsSpinningWheel.gerund</t>
-  </si>
-  <si>
-    <t>spinning at</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFVBE_DoBillsEspressoMachine.label</t>
-  </si>
-  <si>
-    <t>FSFVBE_DoBillsEspressoMachine.label</t>
-  </si>
-  <si>
     <t>Vanilla Brewing Expanded - Coffees and Teas</t>
   </si>
   <si>
-    <t>brew at espresso machine</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFVBE_DoBillsEspressoMachine.verb</t>
-  </si>
-  <si>
-    <t>FSFVBE_DoBillsEspressoMachine.verb</t>
-  </si>
-  <si>
-    <t>brew</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFVBE_DoBillsEspressoMachine.gerund</t>
-  </si>
-  <si>
-    <t>FSFVBE_DoBillsEspressoMachine.gerund</t>
-  </si>
-  <si>
-    <t>brew at</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFVFEA_DoBillsAncientCookingStation.label</t>
-  </si>
-  <si>
-    <t>FSFVFEA_DoBillsAncientCookingStation.label</t>
-  </si>
-  <si>
     <t>Vanilla Factions Expanded - Ancients</t>
   </si>
   <si>
-    <t>work at ancient cooking station</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFVFEA_DoBillsAncientCookingStation.verb</t>
-  </si>
-  <si>
-    <t>FSFVFEA_DoBillsAncientCookingStation.verb</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>Patches.WorkGiverDef+FSFVFEA_DoBillsAncientCookingStation.gerund</t>
-  </si>
-  <si>
-    <t>FSFVFEA_DoBillsAncientCookingStation.gerund</t>
-  </si>
-  <si>
-    <t>working at</t>
-  </si>
-  <si>
-    <t>간호</t>
-  </si>
-  <si>
-    <t>아픈 사람들을 돌보고, 음식을 갔다주며, 기운을 북돋우고, 할당된 임무를 수행합니다. 간호사들은 정착지 주민, 죄수 그리고 동물들을 돌볼 것입니다.</t>
-  </si>
-  <si>
-    <t>수술</t>
-  </si>
-  <si>
-    <t>인간 및 동물을 대상으로 수술을 합니다.</t>
-  </si>
-  <si>
-    <t>치료</t>
-  </si>
-  <si>
-    <t>장전</t>
-  </si>
-  <si>
-    <t>장전 작업자</t>
-  </si>
-  <si>
-    <t>포탑을 재장전합니다.</t>
-  </si>
-  <si>
-    <t>훈련</t>
-  </si>
-  <si>
-    <t>훈련사</t>
-  </si>
-  <si>
-    <t>야생 동물을 길들이고, 가축을 훈련시킵니다.</t>
-  </si>
-  <si>
-    <t>도축</t>
-  </si>
-  <si>
-    <t>도축자</t>
-  </si>
-  <si>
-    <t>가축을 도축해 육류로 가공하거나 사료등을 제작합니다.</t>
-  </si>
-  <si>
-    <t>수리</t>
-  </si>
-  <si>
-    <t>수리자</t>
-  </si>
-  <si>
-    <t>손상되거나 파손된 건물, 물품을 수리합니다.</t>
-  </si>
-  <si>
-    <t>해체</t>
-  </si>
-  <si>
-    <t>해체자</t>
-  </si>
-  <si>
-    <t>해체 / 제거</t>
-  </si>
-  <si>
-    <t>건물이나 물체를, 해체하거나 제거합니다.</t>
-  </si>
-  <si>
-    <t>수확</t>
-  </si>
-  <si>
-    <t>농부</t>
-  </si>
-  <si>
-    <t>다 자란 작물을 수확합니다.</t>
-  </si>
-  <si>
-    <t>심층 채굴</t>
-  </si>
-  <si>
-    <t>광부</t>
-  </si>
-  <si>
-    <t>자원을 채굴하기 위해 심층 굴착기를 사용합니다.</t>
-  </si>
-  <si>
-    <t>약물 제조</t>
-  </si>
-  <si>
-    <t>약사</t>
-  </si>
-  <si>
-    <t>약물 연구대에서 약물을 제조합니다.</t>
-  </si>
-  <si>
-    <t>제작</t>
-  </si>
-  <si>
-    <t>조립 제작</t>
-  </si>
-  <si>
-    <t>조립 제작자</t>
-  </si>
-  <si>
-    <t>조립 작업대에서 원자재로 무기, 갑옷, 생체 공학 및 구성 요소를 만듭니다.</t>
-  </si>
-  <si>
-    <t>제련</t>
-  </si>
-  <si>
-    <t>기계 제작</t>
-  </si>
-  <si>
-    <t>기술자</t>
-  </si>
-  <si>
-    <t>기계 작업대에서 원자재로 무기와 도구를 만듭니다.</t>
-  </si>
-  <si>
-    <t>정제</t>
-  </si>
-  <si>
-    <t>정제자</t>
-  </si>
-  <si>
-    <t>연료 정제기에서 화학 연료를 정제합니다.</t>
-  </si>
-  <si>
-    <t>용해</t>
-  </si>
-  <si>
-    <t>용해자</t>
-  </si>
-  <si>
-    <t>전기로를 사용하여 덩어리나 무기를 녹여서 유용한 금속을 추출하거나, 녹여 없애버립니다.</t>
-  </si>
-  <si>
-    <t>석재 가공</t>
-  </si>
-  <si>
-    <t>석재 가공자</t>
-  </si>
-  <si>
-    <t>바위 덩어리로 벽돌을 만듭니다.</t>
-  </si>
-  <si>
-    <t>소각</t>
-  </si>
-  <si>
-    <t>소각자</t>
-  </si>
-  <si>
-    <t>화장터, 모닥불을 이용해 의류, 약물 그리고 시체를 소각합니다.</t>
+    <t>Dubs Bad Hygiene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (( Dubs Bad Hygiene || Biotech )) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Dead Man's Switch</t>
+  </si>
+  <si>
+    <t>Moves all the Anomaly related tasks from other worktypes into Dark Study and changes the worktype requirements to include Social.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상현상 작업은 공허조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 할 수 있는 전문가들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문가의 비활성화 된 작업 유형을 전부 제거합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가르치기 작업 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료 제공</t>
+  </si>
+  <si>
+    <t>아이 씻기</t>
+  </si>
+  <si>
+    <t>씻기</t>
+  </si>
+  <si>
+    <t>자원 운반</t>
+  </si>
+  <si>
+    <t>수감자에게 식사 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에서 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에서 양조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자를 수술 침대로 옮기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수술을 위해 옮기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식사 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료 제공하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씻기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임으로 자원 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전달</t>
-  </si>
-  <si>
-    <t>짐꾼</t>
-  </si>
-  <si>
-    <t>구조물 청사진에 필요한 건축 자재를 운반합니다.</t>
-  </si>
-  <si>
-    <t>탐색</t>
-  </si>
-  <si>
-    <t>탐색자</t>
-  </si>
-  <si>
-    <t>원거리 광물 스캐너를 사용하여 자원을 탐색하거나, 지면 투과 스캐너를 통해 탐색합니다.</t>
-  </si>
-  <si>
-    <t>광물 탐색</t>
-  </si>
-  <si>
-    <t>생산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다양한 상품을 생산하는 일반 생산 업무를 수행합니다.  여기에는 일반적으로 생산 개체를 채우고 비우거나 간단한 작업을 수행하는 것이 포함됩니다.</t>
-  </si>
-  <si>
-    <t>운송</t>
-  </si>
-  <si>
-    <t>운송 담당자</t>
-  </si>
-  <si>
-    <t>수송 포드 ,상단, 차량을 준비하고 하역합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>운반</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>운반자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요한 곳으로 물건을 운반합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>- FrozenSnowFox Complex Jobs -</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경된 설정을 적용하려면 게임을 다시 시작해야 합니다.\n게임 중간에 새로운 작업 유형을 활성화하는 경우 기존 메카노이드를 교체해야 새 작업유형을 적용할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Complex Jobs 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소집 중 작업 임무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 작업 임무를 소집 중에도 수행할 수 있도록 변경합니다.  작업을 수행하기 위해 더 이상 폰을 소집 취소했다가 다시 소집할 필요가 없도록 변경합니다.\n참고: 일부 작업은 여전히 소집 중에도 사용할 수 없으며, 일부 작업은 폰을 강제로 소집 취소하여 작업을 수행할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소방에 포함된 구조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소방에 구조라는 중복된 임무를 추가합니다.  이렇게 하면 소방 작업 유형에 속한 사람이 화재 진압을 시도하기 전에 쓰러진 아군을 먼저 구조하게 됩니다.\n참고: 이 옵션은 구조 작업 유형의 대안이지만 두 옵션 모두 문제 없이 활성화할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유능한 메카노이드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 작업 유형 작업의 canBeDoneByMechs 필드를 false에서 true로 변경합니다.\n참고: 일부 작업들은 추가적인 코드로 수정하지 않으면 게임이 깨집니다. 이러한 작업들은 명백한 이유로 제외됩니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유능한 노예</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>노예가 감시를 제외한 모든 작업 유형을 수행할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유능한 워캐스킷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>워캐스킷이 모든 작업 유형을 수행할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오염 제거 작업 유형</t>
-  </si>
-  <si>
-    <t>오염 제거 작업 유형을 활성화하여 오염 제거 작업을 별도의 작업 유형으로 이동시킵니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제설 작업 유형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제설 작업 유형을 활성화하여 제설 작업 유형을 별도의 작업 유형으로 이동시킵니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교화 작업 유형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포로의 이념을 교화하는 데 중점을 둔 작업 유형을 활성화합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드 작업 유형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드와 관련된 모든 것에 초점을 맞춘 메카노이드 작업 유형을 활성화합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물건 병합 작업 유형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물건 병합 작업 유형을 활성화하여 병합 작업을 운반에서 별도의 작업 유형으로 이동시킵니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도색 작업 유형</t>
-  </si>
-  <si>
-    <t>도색 작업 유형을 활성화하여 페인트 관련 작업을 모두 별도의 작업 유형으로 이동시킵니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포로 관리 작업 유형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>음식을 제공하고 수감자들을 돌보는 데 중점을 둔 포로 관리 작업 유형을 활성화합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가지치기 작업유헝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무 가지치기에 중점을 둔 가지치기 작업 유형을 활성화합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구조 작업 유형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰러진 아군을 구출하는 데 중점을 둔 구조 작업 유형을 활성화합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도축 작업 유형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정된 동물을 도축하는 데 중점을 둔 도축 작업 유형을 활성화합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다듬기 작업 유형</t>
-  </si>
-  <si>
-    <t>바닥과 벽 표면을 다듬어 더 깔끔하게 만드는 데 중점을 둔 다듬기 작업 유형을 활성화합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>길들이기 작업 유형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물 길들이기에 중점을 둔 길들이기 작업 유형을 활성화합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>환자를 수술 침대로 데려갑니다.</t>
-  </si>
-  <si>
-    <t>수술을 위해 데려갑니다.</t>
-  </si>
-  <si>
-    <t>수술을 위해 데려가는 중입니다.</t>
-  </si>
-  <si>
-    <t>자원들을 프레임으로 전달합니다.</t>
-  </si>
-  <si>
-    <t>전달합니다.</t>
-  </si>
-  <si>
-    <t>전달 중입니다.</t>
-  </si>
-  <si>
-    <t>자원들을 청사진으로 전달합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>막힘을 제거합니다.</t>
-  </si>
-  <si>
-    <t>막힘을 제거하는 중입니다.</t>
-  </si>
-  <si>
-    <t>시체에 두 번의 확인 사살을 합니다.</t>
-  </si>
-  <si>
-    <t>두 번의 확인 사살</t>
-  </si>
-  <si>
-    <t>확인 사살 중</t>
-  </si>
-  <si>
-    <t>씨앗을 처리합니다.</t>
-  </si>
-  <si>
-    <t>처리합니다.</t>
-  </si>
-  <si>
-    <t>처리 중</t>
-  </si>
-  <si>
-    <t>식물성 우유를 추출합니다.</t>
-  </si>
-  <si>
-    <t>식물성 우유를 추출 중입니다.</t>
-  </si>
-  <si>
-    <t>통조림 기계에서 작업합니다.</t>
-  </si>
-  <si>
-    <t>음식을 통조림으로 만듭니다.</t>
-  </si>
-  <si>
-    <t>음식을 통조림으로 만드는 중입니다.</t>
-  </si>
-  <si>
-    <t>고기 분쇄기에서 요리합니다.</t>
-  </si>
-  <si>
-    <t>요리합니다.</t>
-  </si>
-  <si>
-    <t>요리 중입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>곡물을 대량으로 갈다</t>
-  </si>
-  <si>
-    <t>제분하다</t>
-  </si>
-  <si>
-    <t>제분 중</t>
-  </si>
-  <si>
-    <t>준비 테이블에서 조미료 작업을 하다</t>
-  </si>
-  <si>
-    <t>조미료를 준비하다</t>
-  </si>
-  <si>
-    <t>조미료를 준비 중</t>
-  </si>
-  <si>
-    <t>목재를 만들다</t>
-  </si>
-  <si>
-    <t>제작하다</t>
-  </si>
-  <si>
-    <t>제작 중</t>
-  </si>
-  <si>
-    <t>면을 잣다</t>
-  </si>
-  <si>
-    <t>잣다</t>
-  </si>
-  <si>
-    <t>잣는 중</t>
-  </si>
-  <si>
-    <t>에스프레소 머신에서 양조하다</t>
-  </si>
-  <si>
-    <t>양조하다</t>
-  </si>
-  <si>
-    <t>양조 중입니다</t>
-  </si>
-  <si>
-    <t>고대 조리대에서 일합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일하다</t>
-  </si>
-  <si>
-    <t>일하는 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청사진으로 자원 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막힘 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시체에 확인사살 두 번 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">확인 사살 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨앗을 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물성 우유 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통조림 기계에서 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식을 통조림으로 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기 분쇄기에서 요리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비 테이블에서 조미료 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조미료 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스프레소 머신에서 양조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에서 요리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에서 조미료 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에서 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">에서 식물성 우유 추출 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에서 음식을 통조림으로 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압력챔버 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험용 반응로 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대 조리대 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소결로 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험용 소결로 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 작업 유형에 속해 있던 모든 이상 현상 관련 작업들을 공허조사 작업으로 이동시키고, 해당 작업 유형의 요구 능력에 사교 능력을 포함시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가르치기 작업 유형을 추가하여, 기존에 육아 작업에 속해 있던 아이 가르치기 작업을 분리해 독립적인 작업 유형으로 이동시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkGiverDef</t>
+  </si>
+  <si>
+    <t>FSFFirefighterRescue.label</t>
+  </si>
+  <si>
+    <t>FSFFirefighterRescue.gerund</t>
+  </si>
+  <si>
+    <t>FSFFirefighterRescue.verb</t>
+  </si>
+  <si>
+    <t>FSFPrisonCare.description</t>
+  </si>
+  <si>
+    <t>FSFPrisonCare.gerundLabel</t>
+  </si>
+  <si>
+    <t>FSFPrisonCare.labelShort</t>
+  </si>
+  <si>
+    <t>FSFPrisonCare.pawnLabel</t>
+  </si>
+  <si>
+    <t>FSFPrisonCare.verb</t>
+  </si>
+  <si>
+    <t>FSFTeach.description</t>
+  </si>
+  <si>
+    <t>FSFTeach.gerundLabel</t>
+  </si>
+  <si>
+    <t>FSFTeach.labelShort</t>
+  </si>
+  <si>
+    <t>FSFTeach.pawnLabel</t>
+  </si>
+  <si>
+    <t>FSFTeach.verb</t>
+  </si>
+  <si>
+    <t>rescue downed allies to bed</t>
+  </si>
+  <si>
+    <t>rescuing</t>
+  </si>
+  <si>
+    <t>rescue</t>
+  </si>
+  <si>
+    <t>Feed prisoners.</t>
+  </si>
+  <si>
+    <t>wardening</t>
+  </si>
+  <si>
+    <t>Prison Care</t>
+  </si>
+  <si>
+    <t>Warden</t>
+  </si>
+  <si>
+    <t>Handle</t>
+  </si>
+  <si>
+    <t>Teach children of the colony.</t>
+  </si>
+  <si>
+    <t>teaching</t>
+  </si>
+  <si>
+    <t>teach</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Teach</t>
+  </si>
+  <si>
+    <t>구조</t>
+  </si>
+  <si>
+    <t>죄수 관리</t>
+  </si>
+  <si>
+    <t>가르치기</t>
+  </si>
+  <si>
+    <t>교사</t>
+  </si>
+  <si>
+    <t>구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가르치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkGiverDef+FSFFirefighterRescue.label</t>
+  </si>
+  <si>
+    <t>WorkGiverDef+FSFFirefighterRescue.gerund</t>
+  </si>
+  <si>
+    <t>WorkGiverDef+FSFFirefighterRescue.verb</t>
+  </si>
+  <si>
+    <t>WorkTypeDef+FSFPrisonCare.description</t>
+  </si>
+  <si>
+    <t>WorkTypeDef+FSFPrisonCare.gerundLabel</t>
+  </si>
+  <si>
+    <t>WorkTypeDef+FSFPrisonCare.labelShort</t>
+  </si>
+  <si>
+    <t>WorkTypeDef+FSFPrisonCare.pawnLabel</t>
+  </si>
+  <si>
+    <t>WorkTypeDef+FSFPrisonCare.verb</t>
+  </si>
+  <si>
+    <t>WorkTypeDef+FSFTeach.description</t>
+  </si>
+  <si>
+    <t>WorkTypeDef+FSFTeach.gerundLabel</t>
+  </si>
+  <si>
+    <t>WorkTypeDef+FSFTeach.labelShort</t>
+  </si>
+  <si>
+    <t>WorkTypeDef+FSFTeach.pawnLabel</t>
+  </si>
+  <si>
+    <t>WorkTypeDef+FSFTeach.verb</t>
+  </si>
+  <si>
+    <t>쓰러진 아군을 침대로 구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄수에게 식사 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">감시 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정착지 아이 가르치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
       <family val="2"/>
     </font>
     <font>
@@ -2232,11 +2601,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2539,21 +2906,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F186" sqref="F186:F188"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="E205" sqref="E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="135.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="62.42578125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2590,7 +2958,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>561</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2607,7 +2975,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>561</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2624,7 +2992,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>561</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2641,7 +3009,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>562</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2658,7 +3026,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>561</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2675,7 +3043,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>563</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2692,7 +3060,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>563</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2709,7 +3077,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>563</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2726,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>564</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2743,7 +3111,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>565</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2760,7 +3128,7 @@
         <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>566</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2777,7 +3145,7 @@
         <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>567</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2794,7 +3162,7 @@
         <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>566</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2811,7 +3179,7 @@
         <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>568</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2828,7 +3196,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>566</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2845,7 +3213,7 @@
         <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>569</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2862,7 +3230,7 @@
         <v>54</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>570</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2879,7 +3247,7 @@
         <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>569</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2896,7 +3264,7 @@
         <v>60</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>571</v>
+        <v>618</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2913,7 +3281,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>569</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2930,7 +3298,7 @@
         <v>65</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>572</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2947,7 +3315,7 @@
         <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>573</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2964,7 +3332,7 @@
         <v>71</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>572</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2981,7 +3349,7 @@
         <v>74</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>574</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2998,7 +3366,7 @@
         <v>65</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>572</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3015,7 +3383,7 @@
         <v>79</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>575</v>
+        <v>622</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3032,7 +3400,7 @@
         <v>82</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>576</v>
+        <v>623</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3049,7 +3417,7 @@
         <v>85</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>575</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -3066,7 +3434,7 @@
         <v>88</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>577</v>
+        <v>624</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -3083,7 +3451,7 @@
         <v>79</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>575</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -3100,7 +3468,7 @@
         <v>93</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>578</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -3117,7 +3485,7 @@
         <v>96</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>579</v>
+        <v>626</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -3134,7 +3502,7 @@
         <v>99</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>580</v>
+        <v>627</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -3151,7 +3519,7 @@
         <v>102</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>581</v>
+        <v>628</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -3168,7 +3536,7 @@
         <v>93</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>578</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -3185,7 +3553,7 @@
         <v>107</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>582</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -3202,7 +3570,7 @@
         <v>110</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>583</v>
+        <v>630</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -3219,7 +3587,7 @@
         <v>113</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>582</v>
+        <v>629</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -3236,7 +3604,7 @@
         <v>116</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>584</v>
+        <v>631</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -3253,7 +3621,7 @@
         <v>107</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>582</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -3270,7 +3638,7 @@
         <v>121</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>585</v>
+        <v>632</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -3287,7 +3655,7 @@
         <v>124</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>586</v>
+        <v>633</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -3304,7 +3672,7 @@
         <v>127</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>585</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -3321,7 +3689,7 @@
         <v>130</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>587</v>
+        <v>634</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -3338,7 +3706,7 @@
         <v>121</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>585</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -3355,7 +3723,7 @@
         <v>135</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>588</v>
+        <v>635</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -3372,7 +3740,7 @@
         <v>138</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>589</v>
+        <v>636</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3389,7 +3757,7 @@
         <v>135</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>588</v>
+        <v>635</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3406,7 +3774,7 @@
         <v>143</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>590</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3423,7 +3791,7 @@
         <v>146</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>591</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3440,7 +3808,7 @@
         <v>149</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>596</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3457,7 +3825,7 @@
         <v>152</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>597</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3471,129 +3839,129 @@
         <v>154</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>596</v>
+        <v>639</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>598</v>
+        <v>641</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>595</v>
+        <v>642</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="F57" s="1" t="s">
-        <v>592</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>593</v>
+        <v>644</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="F59" s="1" t="s">
-        <v>592</v>
+        <v>643</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="F60" s="1" t="s">
-        <v>594</v>
+        <v>645</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>595</v>
+        <v>642</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3610,7 +3978,7 @@
         <v>178</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>599</v>
+        <v>646</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3627,7 +3995,7 @@
         <v>181</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>600</v>
+        <v>647</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3644,7 +4012,7 @@
         <v>184</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>599</v>
+        <v>646</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3661,7 +4029,7 @@
         <v>187</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>601</v>
+        <v>648</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3678,7 +4046,7 @@
         <v>178</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>599</v>
+        <v>646</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3695,7 +4063,7 @@
         <v>192</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>618</v>
+        <v>649</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3712,7 +4080,7 @@
         <v>195</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3729,7 +4097,7 @@
         <v>198</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>618</v>
+        <v>649</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3746,7 +4114,7 @@
         <v>201</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>620</v>
+        <v>651</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3763,7 +4131,7 @@
         <v>204</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>618</v>
+        <v>649</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3780,7 +4148,7 @@
         <v>207</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>602</v>
+        <v>652</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3797,7 +4165,7 @@
         <v>210</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>603</v>
+        <v>653</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3814,7 +4182,7 @@
         <v>213</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>602</v>
+        <v>652</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3831,7 +4199,7 @@
         <v>216</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>604</v>
+        <v>654</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3848,7 +4216,7 @@
         <v>207</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>602</v>
+        <v>652</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3865,7 +4233,7 @@
         <v>221</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>605</v>
+        <v>655</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3882,7 +4250,7 @@
         <v>224</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>606</v>
+        <v>656</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3899,7 +4267,7 @@
         <v>227</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>605</v>
+        <v>655</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3916,7 +4284,7 @@
         <v>230</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>607</v>
+        <v>657</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3933,7 +4301,7 @@
         <v>221</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>605</v>
+        <v>655</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3950,7 +4318,7 @@
         <v>235</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3967,7 +4335,7 @@
         <v>238</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>622</v>
+        <v>659</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3984,7 +4352,7 @@
         <v>241</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -4001,7 +4369,7 @@
         <v>244</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>623</v>
+        <v>660</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -4018,7 +4386,7 @@
         <v>235</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>621</v>
+        <v>658</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -4035,7 +4403,7 @@
         <v>249</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>608</v>
+        <v>661</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -4052,7 +4420,7 @@
         <v>252</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>609</v>
+        <v>662</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -4069,7 +4437,7 @@
         <v>255</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>608</v>
+        <v>661</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -4086,7 +4454,7 @@
         <v>258</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>610</v>
+        <v>663</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -4103,7 +4471,7 @@
         <v>261</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>608</v>
+        <v>661</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -4120,7 +4488,7 @@
         <v>264</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -4137,7 +4505,7 @@
         <v>267</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>612</v>
+        <v>665</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -4154,7 +4522,7 @@
         <v>270</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -4171,7 +4539,7 @@
         <v>273</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>613</v>
+        <v>666</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -4188,7 +4556,7 @@
         <v>276</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -4205,7 +4573,7 @@
         <v>279</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>624</v>
+        <v>667</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -4222,7 +4590,7 @@
         <v>267</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -4239,7 +4607,7 @@
         <v>284</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>624</v>
+        <v>667</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -4256,7 +4624,7 @@
         <v>287</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>626</v>
+        <v>669</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -4273,7 +4641,7 @@
         <v>290</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>624</v>
+        <v>667</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -4290,7 +4658,7 @@
         <v>293</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>614</v>
+        <v>670</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -4307,7 +4675,7 @@
         <v>296</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>615</v>
+        <v>671</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -4324,7 +4692,7 @@
         <v>299</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>614</v>
+        <v>670</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -4341,7 +4709,7 @@
         <v>302</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>616</v>
+        <v>672</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -4358,7 +4726,7 @@
         <v>305</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>617</v>
+        <v>673</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -4377,8 +4745,8 @@
       <c r="E107" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>627</v>
+      <c r="F107" s="1" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -4398,7 +4766,7 @@
         <v>314</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>628</v>
+        <v>675</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -4418,7 +4786,7 @@
         <v>317</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>629</v>
+        <v>676</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -4438,7 +4806,7 @@
         <v>320</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>630</v>
+        <v>723</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -4455,786 +4823,804 @@
         <v>309</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>323</v>
+        <v>722</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>631</v>
+        <v>768</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>632</v>
+        <v>677</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>633</v>
+        <v>678</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>634</v>
+        <v>679</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>635</v>
+        <v>680</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>636</v>
+        <v>724</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>637</v>
+        <v>725</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>638</v>
+        <v>681</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>639</v>
+        <v>682</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>640</v>
+        <v>683</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>641</v>
+        <v>352</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>642</v>
+        <v>685</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>643</v>
+        <v>358</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>644</v>
+        <v>687</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>645</v>
+        <v>688</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>646</v>
+        <v>689</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>647</v>
+        <v>690</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>648</v>
+        <v>691</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>649</v>
+        <v>692</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>650</v>
+        <v>693</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>651</v>
+        <v>694</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>652</v>
+        <v>695</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>653</v>
+        <v>696</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>654</v>
+        <v>697</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>655</v>
+        <v>698</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>656</v>
+        <v>699</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>657</v>
+        <v>700</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>658</v>
+        <v>701</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>659</v>
+        <v>702</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>660</v>
+        <v>703</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>661</v>
+        <v>704</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>662</v>
+        <v>705</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>663</v>
+        <v>706</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="D144" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="F144" s="1" t="s">
-        <v>664</v>
+        <v>707</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="F145" s="1" t="s">
-        <v>665</v>
+        <v>708</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="F146" s="1" t="s">
-        <v>666</v>
+        <v>709</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="F147" s="1" t="s">
-        <v>667</v>
+        <v>710</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="F148" s="1" t="s">
-        <v>668</v>
+        <v>726</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="F149" s="1" t="s">
-        <v>669</v>
+        <v>769</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C150" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="F150" s="1" t="s">
-        <v>670</v>
+        <v>736</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C151" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="F151" s="1" t="s">
-        <v>668</v>
+        <v>737</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -5242,36 +5628,33 @@
         <v>444</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>445</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>669</v>
+        <v>737</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D153" s="1" t="s">
         <v>448</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>449</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>671</v>
+        <v>731</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -5279,59 +5662,53 @@
         <v>450</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="E154" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>671</v>
+        <v>738</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>672</v>
+        <v>738</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>458</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>673</v>
+        <v>739</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -5339,19 +5716,19 @@
         <v>459</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>460</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>461</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>674</v>
+        <v>727</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -5359,19 +5736,19 @@
         <v>462</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>463</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>464</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>675</v>
+        <v>727</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -5379,16 +5756,19 @@
         <v>465</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>466</v>
       </c>
+      <c r="D159" s="1" t="s">
+        <v>720</v>
+      </c>
       <c r="E159" s="1" t="s">
         <v>467</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>676</v>
+        <v>728</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -5396,16 +5776,19 @@
         <v>468</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="D160" s="1" t="s">
+        <v>720</v>
+      </c>
       <c r="E160" s="1" t="s">
         <v>470</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>677</v>
+        <v>729</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -5413,16 +5796,19 @@
         <v>471</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>472</v>
       </c>
+      <c r="D161" s="1" t="s">
+        <v>720</v>
+      </c>
       <c r="E161" s="1" t="s">
         <v>473</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>678</v>
+        <v>740</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -5430,543 +5816,1148 @@
         <v>474</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="F162" s="1" t="s">
-        <v>679</v>
+        <v>730</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C163" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="F163" s="1" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="E164" s="1" t="s">
-        <v>483</v>
+        <v>270</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>680</v>
+        <v>741</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>487</v>
-      </c>
       <c r="F165" s="1" t="s">
-        <v>681</v>
+        <v>742</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D166" s="1" t="s">
         <v>486</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>682</v>
+        <v>743</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>683</v>
+        <v>743</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>685</v>
+        <v>743</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>686</v>
+        <v>743</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>506</v>
+        <v>711</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>687</v>
+        <v>745</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>506</v>
+        <v>719</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>688</v>
+        <v>745</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>506</v>
+        <v>711</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>689</v>
+        <v>745</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>486</v>
+        <v>712</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>690</v>
+        <v>746</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>486</v>
+        <v>712</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>486</v>
+        <v>712</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>692</v>
+        <v>747</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>506</v>
+        <v>721</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>693</v>
+        <v>766</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>506</v>
+        <v>721</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>694</v>
+        <v>733</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>506</v>
+        <v>721</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>695</v>
+        <v>732</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>506</v>
+        <v>721</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>696</v>
+        <v>767</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>506</v>
+        <v>721</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>697</v>
+        <v>733</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>506</v>
+        <v>721</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>698</v>
+        <v>732</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>701</v>
+        <v>760</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>553</v>
+        <v>714</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>702</v>
+        <v>750</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>553</v>
+        <v>714</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>703</v>
+        <v>750</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C188" s="1" t="s">
+      <c r="B192" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E188" s="1" t="s">
+      <c r="D192" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>704</v>
+      <c r="F192" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>799</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
 </file>